--- a/Excel/UsefulSite.xlsx
+++ b/Excel/UsefulSite.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunar\OneDrive\바탕 화면\Git\Temporary\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE8EBC-1783-49C3-9E00-E054D8100E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="13995" windowHeight="12345"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,55 +44,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>색상참조사이트(gradient 대체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.colorzilla.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/tnakekd/220299894819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 사진 편집프로그램</t>
+  </si>
+  <si>
+    <t>www.gimp.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미없는문장 사이트</t>
+  </si>
+  <si>
+    <t>www.lipsum.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.unsplash.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료이미지사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width max와 min 비교 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://solbel.tistory.com/106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 자르기 함수(같은 데이터 들어가는 팝업 공통사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://victorydntmd.tistory.com/179</t>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 검사(form validation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 테이블 조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/PostView.naver?isHttpsRedirect=true&amp;blogId=p952973&amp;logNo=220986301342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO리스트에 add로 값 넣을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://yamea-guide.tistory.com/entry/JAVA-VO%EB%A6%AC%EC%8A%A4%ED%8A%B8%EC%97%90-add%EB%A1%9C-%EA%B0%92-%EB%84%A3%EA%B3%A0-%EC%8B%B6%EC%9D%84%EB%95%8C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>srgb.dothome.co.kr/min_max_width.html</t>
-  </si>
-  <si>
-    <t>색상참조사이트(gradient 대체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.colorzilla.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/tnakekd/220299894819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무료 사진 편집프로그램</t>
-  </si>
-  <si>
-    <t>www.gimp.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미없는문장 사이트</t>
-  </si>
-  <si>
-    <t>www.lipsum.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.unsplash.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무료이미지사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width max와 min 비교 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,6 +202,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -203,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +285,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,18 +529,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="53.625" customWidth="1"/>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -473,7 +556,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -484,63 +567,110 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{8346A413-EF1A-44B7-85B9-1E574D559AA3}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{144243C5-9ADC-4EA0-BC02-62143B64543C}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{28CB038E-E8AA-4605-9F0D-C589C3BDEAF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -553,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
